--- a/Docs/일정표.xlsx
+++ b/Docs/일정표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정다민\Documents\다민\2023-2\네트워크게임프로그래밍\텀프\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3-2\To_Be_A_Butterfly\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1544EDCB-7AA5-4833-87E9-1258B8237BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3E839A-C0F7-428E-B953-A4A842B88F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{9506B8FB-5D2B-43E2-9A36-DDC3AE748C09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9506B8FB-5D2B-43E2-9A36-DDC3AE748C09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -140,15 +140,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">SendClientPos() </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>함수 정의</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecvClientPos()</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -251,11 +243,6 @@
   </si>
   <si>
     <t>기존 클라이언트 수정 (텍스처)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>라인과의 
-충돌 처리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -346,6 +333,119 @@
   <si>
     <t>상태 정보 수신
 RecvClientStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="20"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라인과의 
+충돌 처리</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>11/15 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 바꿀 때는 회색 글자로 변환 후 줄 긋기
+줄 그은 후 밑줄에 빨간 색으로 이동한 날짜 작성
+이동한 날짜는 빨간색으로 일정 추가하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라인과의
+충돌 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SendClientPos() 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>11/16 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendClient
+Pos()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RecvClientPos()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>11/17 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="20"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">중간 점검
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>RecvClient
+Pos()</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +453,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +567,21 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="20"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="KoPubWorld돋움체 Medium"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="KoPubWorld돋움체 Medium"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -523,7 +638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,17 +666,35 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -569,23 +702,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -907,17 +1034,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC6F23C-6146-4FAD-817F-B3A42C13F2BF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:Q5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="24" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="19.5"/>
   <cols>
     <col min="1" max="17" width="27.75" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.58203125" style="1"/>
+    <col min="18" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="59" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="59.1" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -964,7 +1091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="59" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="59.1" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1015,133 +1142,133 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:17" ht="93.95" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="93.95" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="10"/>
-    </row>
-    <row r="4" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="12"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" spans="1:17" ht="93.95" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
+      <c r="K5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-    </row>
-    <row r="6" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+    </row>
+    <row r="6" spans="1:17" ht="93.95" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12"/>
+      <c r="K6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-    </row>
-    <row r="7" spans="1:17" ht="59" customHeight="1" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="7" spans="1:17" ht="59.1" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1192,157 +1319,157 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:17" ht="93.95" customHeight="1">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="10"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="9"/>
-      <c r="B9" s="19" t="s">
+      <c r="P8" s="17"/>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" ht="93.95" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="C9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="10"/>
+      <c r="G9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="15"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="12"/>
       <c r="K9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="M9" s="14"/>
       <c r="N9" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="1:17" ht="93.95" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="12"/>
+      <c r="B10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="14"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="19"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="12"/>
+      <c r="K10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="14"/>
       <c r="N10" s="4"/>
       <c r="O10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="1:17" ht="93.95" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="9"/>
-    </row>
-    <row r="12" spans="1:17" ht="59" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O11" s="12"/>
+      <c r="P11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" ht="59.1" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1387,129 +1514,129 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:17" ht="93.95" customHeight="1">
+      <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12" t="s">
+      <c r="B13" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="10"/>
+      <c r="E13" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="15"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="15" t="s">
+      <c r="L13" s="14"/>
+      <c r="M13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="15"/>
+      <c r="N13" s="11"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="9"/>
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
+    <row r="14" spans="1:17" ht="93.95" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="93.95" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="93.95" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="19"/>
       <c r="G16" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" ht="59" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" ht="59.1" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1544,25 +1671,25 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:17" ht="93.95" customHeight="1">
+      <c r="A18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12" t="s">
+      <c r="B18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="9" t="s">
+      <c r="E18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1573,23 +1700,23 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="9"/>
+    <row r="19" spans="1:17" ht="93.95" customHeight="1">
+      <c r="A19" s="12"/>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="D19" s="14"/>
       <c r="E19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1600,23 +1727,23 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" ht="93.95" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1627,20 +1754,20 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" ht="93.95" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="6"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1652,49 +1779,46 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="1:17" ht="44.1" customHeight="1"/>
+    <row r="23" spans="1:17" ht="44.1" customHeight="1"/>
+    <row r="24" spans="1:17" ht="44.1" customHeight="1">
+      <c r="B24" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:17" ht="44.1" customHeight="1">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="1:17" ht="44.1" customHeight="1">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+    </row>
+    <row r="27" spans="1:17" ht="44.1" customHeight="1">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+    </row>
+    <row r="28" spans="1:17" ht="44.1" customHeight="1"/>
+    <row r="29" spans="1:17" ht="44.1" customHeight="1"/>
+    <row r="30" spans="1:17" ht="44.1" customHeight="1"/>
+    <row r="31" spans="1:17" ht="44.1" customHeight="1"/>
+    <row r="32" spans="1:17" ht="44.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="M13:N16"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:L16"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="F6:H6"/>
+  <mergeCells count="55">
+    <mergeCell ref="B24:D27"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="P10:Q10"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="H18:H19"/>
@@ -1711,14 +1835,36 @@
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:L16"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="M13:N16"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/일정표.xlsx
+++ b/Docs/일정표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3-2\To_Be_A_Butterfly\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82107\Desktop\To_Be_A_Butterfly\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3E839A-C0F7-428E-B953-A4A842B88F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592B52A1-AC9E-49D6-8929-5DC3B75CDD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9506B8FB-5D2B-43E2-9A36-DDC3AE748C09}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9506B8FB-5D2B-43E2-9A36-DDC3AE748C09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -182,11 +182,6 @@
   <si>
     <t>맵 정보 수신
 RecvMapData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이외의 기타 충돌 
-이벤트 송수신</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -448,12 +443,80 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">클라이언트
+주소 정보 수신
+RecvClientInfo()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>11/15 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">아이템 충돌
+ItemCollision()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>11/16 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="20"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">맵 충돌
+MapCollision()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>11/19 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 충돌 
+이벤트 송수신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +645,21 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="KoPubWorld돋움체 Medium"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="20"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="KoPubWorld돋움체 Medium"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -638,7 +716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -672,47 +750,68 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1034,14 +1133,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC6F23C-6146-4FAD-817F-B3A42C13F2BF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="19.2"/>
   <cols>
-    <col min="1" max="17" width="27.75" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.625" style="1"/>
+    <col min="1" max="17" width="27.69921875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.59765625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="59.1" customHeight="1">
@@ -1142,131 +1241,131 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="93.95" customHeight="1">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:17" ht="93.9" customHeight="1">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14" t="s">
+      <c r="L3" s="13"/>
+      <c r="M3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="12"/>
+      <c r="O3" s="13"/>
       <c r="P3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" ht="93.95" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" spans="1:17" ht="93.9" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="12"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="M4" s="16"/>
       <c r="N4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="15"/>
-    </row>
-    <row r="5" spans="1:17" ht="93.95" customHeight="1">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="5" spans="1:17" ht="93.9" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-    </row>
-    <row r="6" spans="1:17" ht="93.95" customHeight="1">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:17" ht="93.9" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17" ht="59.1" customHeight="1">
       <c r="A7" s="3" t="s">
@@ -1319,75 +1418,75 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="93.95" customHeight="1">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:17" ht="93.9" customHeight="1">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="14" t="s">
+      <c r="B8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="16" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="15"/>
-    </row>
-    <row r="9" spans="1:17" ht="93.95" customHeight="1">
-      <c r="A9" s="12"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:17" ht="93.9" customHeight="1">
+      <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="D9" s="16"/>
       <c r="E9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="15"/>
+        <v>54</v>
+      </c>
+      <c r="H9" s="14"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="12"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="14"/>
+      <c r="M9" s="16"/>
       <c r="N9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>27</v>
@@ -1395,59 +1494,59 @@
       <c r="P9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="15"/>
-    </row>
-    <row r="10" spans="1:17" ht="93.95" customHeight="1">
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" spans="1:17" ht="93.9" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="D10" s="16"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="19"/>
+      <c r="F10" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="28"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="14"/>
+      <c r="K10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="16"/>
       <c r="N10" s="4"/>
       <c r="O10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="12"/>
-    </row>
-    <row r="11" spans="1:17" ht="93.95" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" spans="1:17" ht="93.9" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="5" t="s">
         <v>37</v>
       </c>
@@ -1456,18 +1555,18 @@
         <v>12</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="12" t="s">
+      <c r="M11" s="16"/>
+      <c r="N11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q11" s="12"/>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17" ht="59.1" customHeight="1">
       <c r="A12" s="3" t="s">
@@ -1514,96 +1613,98 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="93.95" customHeight="1">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:17" ht="93.9" customHeight="1">
+      <c r="A13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="14" t="s">
+      <c r="B13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="11" t="s">
+      <c r="L13" s="16"/>
+      <c r="M13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="11"/>
+      <c r="N13" s="23"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="93.95" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="22" t="s">
+    <row r="14" spans="1:17" ht="93.9" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="14"/>
+      <c r="C14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="16"/>
       <c r="E14" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="15"/>
+        <v>73</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="93.95" customHeight="1">
+    <row r="15" spans="1:17" ht="93.9" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="12"/>
+      <c r="B15" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="22"/>
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="93.95" customHeight="1">
+    <row r="16" spans="1:17" ht="93.9" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1611,27 +1712,27 @@
         <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="D16" s="16"/>
       <c r="E16" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1671,25 +1772,25 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" ht="93.95" customHeight="1">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:17" ht="93.9" customHeight="1">
+      <c r="A18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="14" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="12" t="s">
+      <c r="F18" s="15"/>
+      <c r="G18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1700,23 +1801,23 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" ht="93.95" customHeight="1">
-      <c r="A19" s="12"/>
+    <row r="19" spans="1:17" ht="93.9" customHeight="1">
+      <c r="A19" s="13"/>
       <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="D19" s="16"/>
       <c r="E19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1727,23 +1828,25 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="93.95" customHeight="1">
+    <row r="20" spans="1:17" ht="93.9" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="14"/>
+      <c r="B20" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="16"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1754,20 +1857,20 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" ht="93.95" customHeight="1">
+    <row r="21" spans="1:17" ht="93.9" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="6"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1782,26 +1885,26 @@
     <row r="22" spans="1:17" ht="44.1" customHeight="1"/>
     <row r="23" spans="1:17" ht="44.1" customHeight="1"/>
     <row r="24" spans="1:17" ht="44.1" customHeight="1">
-      <c r="B24" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="B24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:17" ht="44.1" customHeight="1">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:17" ht="44.1" customHeight="1">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:17" ht="44.1" customHeight="1">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:17" ht="44.1" customHeight="1"/>
     <row r="29" spans="1:17" ht="44.1" customHeight="1"/>
@@ -1809,16 +1912,30 @@
     <row r="31" spans="1:17" ht="44.1" customHeight="1"/>
     <row r="32" spans="1:17" ht="44.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="B24:D27"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="P10:Q10"/>
+  <mergeCells count="54">
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="M13:N16"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="K13:L16"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="H18:H19"/>
@@ -1835,36 +1952,21 @@
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B24:D27"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="P10:Q10"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:L16"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="M13:N16"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/일정표.xlsx
+++ b/Docs/일정표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82107\Desktop\To_Be_A_Butterfly\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정다민\Documents\다민\2023-2\네트워크게임프로그래밍\To_Be_A_Butterfly\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592B52A1-AC9E-49D6-8929-5DC3B75CDD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C14F6B-E4E1-47A8-AA1A-A4233520EAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9506B8FB-5D2B-43E2-9A36-DDC3AE748C09}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{9506B8FB-5D2B-43E2-9A36-DDC3AE748C09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,11 +123,6 @@
   </si>
   <si>
     <t>중간 점검</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 클라이언트 수정
-(클리어 조건)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -289,12 +284,6 @@
   <si>
     <t>기존 클라이언트 수정 
 (플레이)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라이언트
-상태 정보
-송수신 테스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -511,12 +500,72 @@
 이벤트 송수신</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">맵 정보 송신
+SendMapData
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>11/16 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">맵 정보 수신
+RecvMapData
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>11/17 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기존 클라이언트 수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+(클리어 조건)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,6 +709,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="KoPubWorld돋움체 Medium"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -716,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,64 +809,55 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1133,17 +1180,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC6F23C-6146-4FAD-817F-B3A42C13F2BF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D21"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="19.2"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="24" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="17" width="27.69921875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.59765625" style="1"/>
+    <col min="1" max="17" width="27.6640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="59.1" customHeight="1">
+    <row r="1" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -1190,7 +1237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="59.1" customHeight="1">
+    <row r="2" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1241,133 +1288,133 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="93.9" customHeight="1">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="13" t="s">
+      <c r="O3" s="15"/>
+      <c r="P3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="14"/>
-    </row>
-    <row r="4" spans="1:17" ht="93.9" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="Q3" s="18"/>
+    </row>
+    <row r="4" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="13"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="16"/>
+        <v>50</v>
+      </c>
+      <c r="M4" s="17"/>
       <c r="N4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="14"/>
-    </row>
-    <row r="5" spans="1:17" ht="93.9" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-    </row>
-    <row r="6" spans="1:17" ht="93.9" customHeight="1">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-    </row>
-    <row r="7" spans="1:17" ht="59.1" customHeight="1">
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1418,157 +1465,157 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="93.9" customHeight="1">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="16" t="s">
+      <c r="M8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="N8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="15"/>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="14"/>
-    </row>
-    <row r="9" spans="1:17" ht="93.9" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="L9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="16"/>
+      <c r="M9" s="17"/>
       <c r="N9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="14"/>
-    </row>
-    <row r="10" spans="1:17" ht="93.9" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="D10" s="17"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="16"/>
+      <c r="K10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="4"/>
       <c r="O10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" spans="1:17" ht="93.9" customHeight="1">
+        <v>51</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="2"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="28"/>
       <c r="J11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="13" t="s">
+      <c r="M11" s="17"/>
+      <c r="N11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" spans="1:17" ht="59.1" customHeight="1">
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1613,131 +1660,128 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="93.9" customHeight="1">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="14"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="18"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="23" t="s">
+      <c r="L13" s="17"/>
+      <c r="M13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="23"/>
+      <c r="N13" s="14"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="93.9" customHeight="1">
-      <c r="A14" s="13"/>
+    <row r="14" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="16"/>
+        <v>50</v>
+      </c>
+      <c r="D14" s="17"/>
       <c r="E14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="93.9" customHeight="1">
+    <row r="15" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="22"/>
+      <c r="B15" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="26"/>
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="93.9" customHeight="1">
+    <row r="16" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="B16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="F16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="26"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" ht="59.1" customHeight="1">
+    <row r="17" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1772,25 +1816,25 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" ht="93.9" customHeight="1">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="19"/>
+      <c r="G18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1801,52 +1845,48 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" ht="93.9" customHeight="1">
-      <c r="A19" s="13"/>
+    <row r="19" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="15"/>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="16"/>
+        <v>50</v>
+      </c>
+      <c r="D19" s="17"/>
       <c r="E19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
+        <v>50</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="93.9" customHeight="1">
+    <row r="20" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="16"/>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="17"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1857,62 +1897,106 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" ht="93.9" customHeight="1">
+    <row r="21" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="6"/>
+      <c r="B21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="19"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" ht="44.1" customHeight="1"/>
-    <row r="23" spans="1:17" ht="44.1" customHeight="1"/>
-    <row r="24" spans="1:17" ht="44.1" customHeight="1">
-      <c r="B24" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:17" ht="44.1" customHeight="1">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:17" ht="44.1" customHeight="1">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:17" ht="44.1" customHeight="1">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:17" ht="44.1" customHeight="1"/>
-    <row r="29" spans="1:17" ht="44.1" customHeight="1"/>
-    <row r="30" spans="1:17" ht="44.1" customHeight="1"/>
-    <row r="31" spans="1:17" ht="44.1" customHeight="1"/>
-    <row r="32" spans="1:17" ht="44.1" customHeight="1"/>
+    <row r="22" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+    </row>
+    <row r="27" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+    </row>
+    <row r="28" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="56">
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B24:D27"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="K13:L16"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="M13:N16"/>
     <mergeCell ref="A3:A4"/>
@@ -1929,44 +2013,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="M3:M6"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="K13:L16"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B24:D27"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J13:J14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/일정표.xlsx
+++ b/Docs/일정표.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정다민\Documents\다민\2023-2\네트워크게임프로그래밍\To_Be_A_Butterfly\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3-2\NGP_TermProject\To_Be_A_Butterfly\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C14F6B-E4E1-47A8-AA1A-A4233520EAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23C2455-A97D-48FD-9075-58F60C6F837D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{9506B8FB-5D2B-43E2-9A36-DDC3AE748C09}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9506B8FB-5D2B-43E2-9A36-DDC3AE748C09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$21</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -812,53 +815,53 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1180,17 +1183,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC6F23C-6146-4FAD-817F-B3A42C13F2BF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="25" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="24" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="27.6640625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.58203125" style="1"/>
+    <col min="1" max="17" width="27.625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="59.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -1237,7 +1240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="59.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1288,61 +1291,61 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="18"/>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="17" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="15"/>
+      <c r="O3" s="17"/>
       <c r="P3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+    <row r="4" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="15"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="17"/>
+      <c r="M4" s="19"/>
       <c r="N4" s="5" t="s">
         <v>27</v>
       </c>
@@ -1354,67 +1357,67 @@
       </c>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="17"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="19"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-    </row>
-    <row r="6" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="17"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-    </row>
-    <row r="7" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+    </row>
+    <row r="7" spans="1:17" ht="59.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1465,25 +1468,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="18"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -1492,27 +1495,27 @@
       <c r="L8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="19" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="P8" s="19"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="18"/>
     </row>
-    <row r="9" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
       <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="9" t="s">
         <v>54</v>
       </c>
@@ -1524,14 +1527,14 @@
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="17"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="5" t="s">
         <v>50</v>
       </c>
@@ -1543,7 +1546,7 @@
       </c>
       <c r="Q9" s="18"/>
     </row>
-    <row r="10" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1553,51 +1556,51 @@
       <c r="C10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="4"/>
       <c r="F10" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="24"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="4"/>
       <c r="O10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="Q10" s="15"/>
-    </row>
-    <row r="11" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="25" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="28"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1605,17 +1608,17 @@
         <v>43</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="15" t="s">
+      <c r="M11" s="19"/>
+      <c r="N11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15" t="s">
+      <c r="O11" s="17"/>
+      <c r="P11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="15"/>
-    </row>
-    <row r="12" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q11" s="17"/>
+    </row>
+    <row r="12" spans="1:17" ht="59.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1660,98 +1663,98 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="17" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="19" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="14" t="s">
         <v>73</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="14" t="s">
+      <c r="L13" s="19"/>
+      <c r="M13" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="14"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
       <c r="B14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="26"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1761,27 +1764,27 @@
       <c r="C16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="19"/>
       <c r="F16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="26"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" ht="59.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1816,22 +1819,22 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="17" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="18"/>
@@ -1845,22 +1848,22 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="15"/>
+    <row r="19" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
       <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="18"/>
       <c r="I19" s="2"/>
       <c r="N19" s="2"/>
@@ -1868,7 +1871,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1878,15 +1881,15 @@
       <c r="C20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="17"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1897,83 +1900,80 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="5" t="s">
         <v>80</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="27" t="s">
+    <row r="22" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-    </row>
-    <row r="25" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-    </row>
-    <row r="26" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-    </row>
-    <row r="27" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-    </row>
-    <row r="28" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B24:D27"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="H18:H19"/>
@@ -1990,32 +1990,35 @@
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:L16"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="M13:N16"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B24:D27"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/일정표.xlsx
+++ b/Docs/일정표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정다민\Documents\다민\2023-2\네트워크게임프로그래밍\To_Be_A_Butterfly\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3-2\To_Be_A_Butterfly\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C14F6B-E4E1-47A8-AA1A-A4233520EAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32EF60D-D031-49C9-B2E6-A4D571FADFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{9506B8FB-5D2B-43E2-9A36-DDC3AE748C09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9506B8FB-5D2B-43E2-9A36-DDC3AE748C09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,14 +143,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">SendOtherClientPos() </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">RecvOtherClientPos() </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SendGameTime()</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -368,68 +360,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">SendClientPos() 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="KoPubWorld돋움체 Medium"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>11/16 이동</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SendClient
 Pos()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RecvClientPos()
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="KoPubWorld돋움체 Medium"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>11/17 이동</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="20"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="KoPubWorld돋움체 Medium"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">중간 점검
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="KoPubWorld돋움체 Medium"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>RecvClient
-Pos()</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -560,12 +492,92 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>RecvClient
+Pos()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SendClientPos() 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>11/20 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RecvClientPos()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>11/22 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SendOther
+ClientPos() </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="20"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중간 점검</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>RecvOhter
+ClientPos()</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,8 +728,29 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <name val="KoPubWorld돋움체 Medium"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="20"/>
+      <name val="KoPubWorld돋움체 Medium"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="20"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="KoPubWorld돋움체 Medium"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,6 +778,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -772,7 +811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,53 +851,68 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1180,17 +1234,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC6F23C-6146-4FAD-817F-B3A42C13F2BF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="24" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="17" width="27.6640625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.58203125" style="1"/>
+    <col min="1" max="17" width="27.625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="59.1" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -1237,7 +1291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="59.1" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1288,133 +1342,133 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:17" ht="93.95" customHeight="1">
+      <c r="A3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="18"/>
-      <c r="F3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="F3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="17"/>
+      <c r="P3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+    <row r="4" spans="1:17" ht="93.95" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="15"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="M4" s="19"/>
       <c r="N4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="O4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="93.95" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="F5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="17"/>
+      <c r="K5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="19"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-    </row>
-    <row r="6" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" ht="93.95" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="F6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="17"/>
+      <c r="K6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-    </row>
-    <row r="7" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+    </row>
+    <row r="7" spans="1:17" ht="59.1" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1465,157 +1519,157 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:17" ht="93.95" customHeight="1">
+      <c r="A8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="17" t="s">
+      <c r="B8" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="18"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="17" t="s">
         <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="19"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="18"/>
     </row>
-    <row r="9" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:17" ht="93.95" customHeight="1">
+      <c r="A9" s="17"/>
       <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="17"/>
+        <v>65</v>
+      </c>
+      <c r="D9" s="19"/>
       <c r="E9" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="17"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="18"/>
     </row>
-    <row r="10" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="93.95" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="17"/>
+        <v>56</v>
+      </c>
+      <c r="D10" s="19"/>
       <c r="E10" s="4"/>
       <c r="F10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="26"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="17"/>
+      <c r="K10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="4"/>
       <c r="O10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="15"/>
-    </row>
-    <row r="11" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" spans="1:17" ht="93.95" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="28"/>
+        <v>74</v>
+      </c>
+      <c r="I11" s="13"/>
       <c r="J11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="15"/>
-    </row>
-    <row r="12" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O11" s="17"/>
+      <c r="P11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="17"/>
+    </row>
+    <row r="12" spans="1:17" ht="59.1" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1660,128 +1714,126 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:17" ht="93.95" customHeight="1">
+      <c r="A13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="17" t="s">
+      <c r="B13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="19" t="s">
-        <v>73</v>
+      <c r="E13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="14" t="s">
+      <c r="L13" s="19"/>
+      <c r="M13" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="14"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:17" ht="93.95" customHeight="1">
+      <c r="A14" s="17"/>
       <c r="B14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="18"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="93.95" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="17"/>
+      <c r="B15" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="26"/>
+        <v>55</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="15"/>
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="93.95" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="D16" s="19"/>
       <c r="F16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="15"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" ht="59.1" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1816,23 +1868,25 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:17" ht="93.95" customHeight="1">
+      <c r="A18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="17" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="15" t="s">
-        <v>23</v>
+      <c r="E18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="2"/>
@@ -1845,22 +1899,22 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="15"/>
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="1:17" ht="93.95" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="5" t="s">
+      <c r="C19" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="15"/>
+      <c r="F19" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="17"/>
       <c r="H19" s="18"/>
       <c r="I19" s="2"/>
       <c r="N19" s="2"/>
@@ -1868,25 +1922,25 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" ht="93.95" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="17"/>
+        <v>72</v>
+      </c>
+      <c r="D20" s="19"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="17"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1897,83 +1951,80 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" ht="93.95" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-    </row>
-    <row r="25" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-    </row>
-    <row r="26" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-    </row>
-    <row r="27" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-    </row>
-    <row r="28" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="1:17" ht="44.1" customHeight="1"/>
+    <row r="23" spans="1:17" ht="44.1" customHeight="1"/>
+    <row r="24" spans="1:17" ht="44.1" customHeight="1">
+      <c r="B24" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:17" ht="44.1" customHeight="1">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:17" ht="44.1" customHeight="1">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:17" ht="44.1" customHeight="1">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:17" ht="44.1" customHeight="1"/>
+    <row r="29" spans="1:17" ht="44.1" customHeight="1"/>
+    <row r="30" spans="1:17" ht="44.1" customHeight="1"/>
+    <row r="31" spans="1:17" ht="44.1" customHeight="1"/>
+    <row r="32" spans="1:17" ht="44.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B24:D27"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J13:J14"/>
+  <mergeCells count="54">
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="H18:H19"/>
@@ -1990,29 +2041,30 @@
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:L16"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="M13:N16"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B24:D27"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
